--- a/Code/Results/Cases/Case_9_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.27187983606724</v>
+        <v>12.55293353688453</v>
       </c>
       <c r="C2">
-        <v>7.272936922074846</v>
+        <v>7.899215994742531</v>
       </c>
       <c r="D2">
-        <v>5.248726638492866</v>
+        <v>5.602110466786526</v>
       </c>
       <c r="E2">
-        <v>8.621652353155234</v>
+        <v>8.846951841272665</v>
       </c>
       <c r="F2">
-        <v>29.08683549532977</v>
+        <v>27.74912261079706</v>
       </c>
       <c r="G2">
-        <v>36.5166122997076</v>
+        <v>33.93340117195952</v>
       </c>
       <c r="H2">
-        <v>2.928244380433155</v>
+        <v>2.821456834213179</v>
       </c>
       <c r="I2">
-        <v>3.641876301036747</v>
+        <v>3.425118037216279</v>
       </c>
       <c r="J2">
-        <v>12.31559713485355</v>
+        <v>11.9195997209107</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.185107424260846</v>
+        <v>14.50656677988723</v>
       </c>
       <c r="M2">
-        <v>11.35461227071018</v>
+        <v>12.34536296684956</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.211639062475329</v>
       </c>
       <c r="O2">
-        <v>11.83395707448987</v>
+        <v>11.31548023489871</v>
       </c>
       <c r="P2">
-        <v>14.47148322148146</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.85047916423484</v>
+      </c>
+      <c r="R2">
+        <v>14.06432522322467</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.46024302022475</v>
+        <v>11.79891897783807</v>
       </c>
       <c r="C3">
-        <v>6.814758519864799</v>
+        <v>7.324465910230948</v>
       </c>
       <c r="D3">
-        <v>5.001880339870341</v>
+        <v>5.334098272268895</v>
       </c>
       <c r="E3">
-        <v>8.275180882161994</v>
+        <v>8.504173784031474</v>
       </c>
       <c r="F3">
-        <v>28.46156358300276</v>
+        <v>27.23514114427035</v>
       </c>
       <c r="G3">
-        <v>35.65541433201371</v>
+        <v>33.32465454339945</v>
       </c>
       <c r="H3">
-        <v>3.160704848291894</v>
+        <v>3.039140495776119</v>
       </c>
       <c r="I3">
-        <v>3.823602216341361</v>
+        <v>3.582179836525763</v>
       </c>
       <c r="J3">
-        <v>12.23016639102049</v>
+        <v>11.82744696072157</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.059216032803615</v>
+        <v>14.56121728434524</v>
       </c>
       <c r="M3">
-        <v>10.62284320152633</v>
+        <v>12.21910345235358</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.096315009711311</v>
       </c>
       <c r="O3">
-        <v>11.31578896487858</v>
+        <v>10.60180598887172</v>
       </c>
       <c r="P3">
-        <v>14.59556712803721</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.33197250976363</v>
+      </c>
+      <c r="R3">
+        <v>14.19960648302026</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.93327541624234</v>
+        <v>11.30774377028351</v>
       </c>
       <c r="C4">
-        <v>6.521941608303529</v>
+        <v>6.955258864894674</v>
       </c>
       <c r="D4">
-        <v>4.845464731675193</v>
+        <v>5.164569529463</v>
       </c>
       <c r="E4">
-        <v>8.054924148425147</v>
+        <v>8.286720329674775</v>
       </c>
       <c r="F4">
-        <v>28.07616922255799</v>
+        <v>26.91818480930581</v>
       </c>
       <c r="G4">
-        <v>35.12361461524323</v>
+        <v>32.95292943307134</v>
       </c>
       <c r="H4">
-        <v>3.308661053827296</v>
+        <v>3.177791653038479</v>
       </c>
       <c r="I4">
-        <v>3.939843297818118</v>
+        <v>3.68300149544086</v>
       </c>
       <c r="J4">
-        <v>12.17967355331255</v>
+        <v>11.77050333995665</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.979609655755002</v>
+        <v>14.59213108224043</v>
       </c>
       <c r="M4">
-        <v>10.14697917184317</v>
+        <v>12.15771001637034</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.023439940347101</v>
       </c>
       <c r="O4">
-        <v>10.98660281612735</v>
+        <v>10.13772128937015</v>
       </c>
       <c r="P4">
-        <v>14.67261683983042</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.0023849273097</v>
+      </c>
+      <c r="R4">
+        <v>14.28353261932899</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.70445532802139</v>
+        <v>11.09381737277089</v>
       </c>
       <c r="C5">
-        <v>6.408989390954321</v>
+        <v>6.810297459740395</v>
       </c>
       <c r="D5">
-        <v>4.783305253293169</v>
+        <v>5.096923386876073</v>
       </c>
       <c r="E5">
-        <v>7.964204705353528</v>
+        <v>8.197252298260196</v>
       </c>
       <c r="F5">
-        <v>27.90834332876898</v>
+        <v>26.77879909853958</v>
       </c>
       <c r="G5">
-        <v>34.88743934612709</v>
+        <v>32.7843216648544</v>
       </c>
       <c r="H5">
-        <v>3.370611191828489</v>
+        <v>3.235860265402332</v>
       </c>
       <c r="I5">
-        <v>3.991000954345925</v>
+        <v>3.728220874466103</v>
       </c>
       <c r="J5">
-        <v>12.15610577368777</v>
+        <v>11.74385379846926</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.946230170317976</v>
+        <v>14.59712966097083</v>
       </c>
       <c r="M5">
-        <v>9.949624289287517</v>
+        <v>12.13201901293904</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.992890452205532</v>
       </c>
       <c r="O5">
-        <v>10.84982642180335</v>
+        <v>9.941055378112726</v>
       </c>
       <c r="P5">
-        <v>14.7021981192943</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.86539727224066</v>
+      </c>
+      <c r="R5">
+        <v>14.3162779958501</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.65750978549384</v>
+        <v>11.04965060287784</v>
       </c>
       <c r="C6">
-        <v>6.401387019183096</v>
+        <v>6.797721333109687</v>
       </c>
       <c r="D6">
-        <v>4.776267834507564</v>
+        <v>5.088812576708468</v>
       </c>
       <c r="E6">
-        <v>7.950089742284786</v>
+        <v>8.183311184271448</v>
       </c>
       <c r="F6">
-        <v>27.86755243095145</v>
+        <v>26.74343730288104</v>
       </c>
       <c r="G6">
-        <v>34.82504791332217</v>
+        <v>32.73469029607926</v>
       </c>
       <c r="H6">
-        <v>3.38137403852815</v>
+        <v>3.245939609985841</v>
       </c>
       <c r="I6">
-        <v>4.002890071058085</v>
+        <v>3.739672163789478</v>
       </c>
       <c r="J6">
-        <v>12.14796195620078</v>
+        <v>11.73531378571226</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.940202306578665</v>
+        <v>14.58945996647886</v>
       </c>
       <c r="M6">
-        <v>9.91920247457811</v>
+        <v>12.12213548639952</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.987368753552712</v>
       </c>
       <c r="O6">
-        <v>10.82695528522753</v>
+        <v>9.906737100623918</v>
       </c>
       <c r="P6">
-        <v>14.70463248674563</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.84248732965018</v>
+      </c>
+      <c r="R6">
+        <v>14.31967840006949</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.90744905206475</v>
+        <v>11.27750571289498</v>
       </c>
       <c r="C7">
-        <v>6.550647487502979</v>
+        <v>6.975851911006763</v>
       </c>
       <c r="D7">
-        <v>4.853628561300441</v>
+        <v>5.177831282488095</v>
       </c>
       <c r="E7">
-        <v>8.056559903500595</v>
+        <v>8.290483475926992</v>
       </c>
       <c r="F7">
-        <v>28.03891381090099</v>
+        <v>26.86311143230014</v>
       </c>
       <c r="G7">
-        <v>35.0577311339684</v>
+        <v>32.95731759898636</v>
       </c>
       <c r="H7">
-        <v>3.31055520050448</v>
+        <v>3.180205325808772</v>
       </c>
       <c r="I7">
-        <v>3.949337346148193</v>
+        <v>3.694539818130213</v>
       </c>
       <c r="J7">
-        <v>12.16776449976692</v>
+        <v>11.71454034667319</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.977945606757291</v>
+        <v>14.55986299106927</v>
       </c>
       <c r="M7">
-        <v>10.14069514121648</v>
+        <v>12.13387979665495</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.021387029425845</v>
       </c>
       <c r="O7">
-        <v>10.98475023997733</v>
+        <v>10.12542559449176</v>
       </c>
       <c r="P7">
-        <v>14.66626133811462</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.99836692814643</v>
+      </c>
+      <c r="R7">
+        <v>14.275745340454</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.970047551922</v>
+        <v>12.25520670161162</v>
       </c>
       <c r="C8">
-        <v>7.154343830571114</v>
+        <v>7.715778941804567</v>
       </c>
       <c r="D8">
-        <v>5.175877971196623</v>
+        <v>5.539124267666546</v>
       </c>
       <c r="E8">
-        <v>8.507403126869912</v>
+        <v>8.740902060899273</v>
       </c>
       <c r="F8">
-        <v>28.82667406624658</v>
+        <v>27.46483148465325</v>
       </c>
       <c r="G8">
-        <v>36.13999039154926</v>
+        <v>33.86124612504245</v>
       </c>
       <c r="H8">
-        <v>3.008668554351901</v>
+        <v>2.898772555023053</v>
       </c>
       <c r="I8">
-        <v>3.71481590823804</v>
+        <v>3.493553320274926</v>
       </c>
       <c r="J8">
-        <v>12.27062028507051</v>
+        <v>11.72880976379977</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.140645416783392</v>
+        <v>14.46812627263044</v>
       </c>
       <c r="M8">
-        <v>11.1033870405848</v>
+        <v>12.25046264360169</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.169285902128475</v>
       </c>
       <c r="O8">
-        <v>11.65762647965475</v>
+        <v>11.05130675000747</v>
       </c>
       <c r="P8">
-        <v>14.50538413386902</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.6672495999716</v>
+      </c>
+      <c r="R8">
+        <v>14.09531811365146</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86057564257849</v>
+        <v>14.06868418695088</v>
       </c>
       <c r="C9">
-        <v>8.19871022521596</v>
+        <v>9.020392083160159</v>
       </c>
       <c r="D9">
-        <v>5.75227328645797</v>
+        <v>6.170332601392573</v>
       </c>
       <c r="E9">
-        <v>9.324624385855255</v>
+        <v>9.553022236487795</v>
       </c>
       <c r="F9">
-        <v>30.41346601261432</v>
+        <v>28.76067150613463</v>
       </c>
       <c r="G9">
-        <v>38.33667479609451</v>
+        <v>35.50514633002533</v>
       </c>
       <c r="H9">
-        <v>2.455431198233758</v>
+        <v>2.381681862193352</v>
       </c>
       <c r="I9">
-        <v>3.276801059205721</v>
+        <v>3.114482091739973</v>
       </c>
       <c r="J9">
-        <v>12.50829264999484</v>
+        <v>11.93341811966449</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.443026271293398</v>
+        <v>14.33954914553319</v>
       </c>
       <c r="M9">
-        <v>12.7870708851286</v>
+        <v>12.66144486807852</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.446316129806289</v>
       </c>
       <c r="O9">
-        <v>12.88424851214243</v>
+        <v>12.69041996990555</v>
       </c>
       <c r="P9">
-        <v>14.20800782587604</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.89240730206696</v>
+      </c>
+      <c r="R9">
+        <v>13.76683063485371</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.07042921113594</v>
+        <v>15.21990066299823</v>
       </c>
       <c r="C10">
-        <v>8.895418623483007</v>
+        <v>9.836054667894619</v>
       </c>
       <c r="D10">
-        <v>6.087584791239655</v>
+        <v>6.566811320407571</v>
       </c>
       <c r="E10">
-        <v>9.71620096276696</v>
+        <v>9.952303925223266</v>
       </c>
       <c r="F10">
-        <v>31.34711861322654</v>
+        <v>29.39921620629616</v>
       </c>
       <c r="G10">
-        <v>39.63497059643033</v>
+        <v>36.81279802036931</v>
       </c>
       <c r="H10">
-        <v>2.10590527682474</v>
+        <v>2.060406658983989</v>
       </c>
       <c r="I10">
-        <v>2.987915314613698</v>
+        <v>2.871043471908404</v>
       </c>
       <c r="J10">
-        <v>12.6372879961643</v>
+        <v>11.7942769570167</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.580765629959254</v>
+        <v>14.12492250794447</v>
       </c>
       <c r="M10">
-        <v>13.86877223708533</v>
+        <v>12.9181144849418</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.565681091777596</v>
       </c>
       <c r="O10">
-        <v>13.61100807569854</v>
+        <v>13.71549214656912</v>
       </c>
       <c r="P10">
-        <v>13.96527123460817</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.60661067614447</v>
+      </c>
+      <c r="R10">
+        <v>13.49699307115687</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35279472554231</v>
+        <v>15.47641972407024</v>
       </c>
       <c r="C11">
-        <v>9.004047465831382</v>
+        <v>9.829294058523038</v>
       </c>
       <c r="D11">
-        <v>5.69293840232942</v>
+        <v>6.210429889419266</v>
       </c>
       <c r="E11">
-        <v>8.494646811509837</v>
+        <v>8.733233209732857</v>
       </c>
       <c r="F11">
-        <v>30.0169961575549</v>
+        <v>27.91662535788365</v>
       </c>
       <c r="G11">
-        <v>37.92341528838213</v>
+        <v>35.95796607997169</v>
       </c>
       <c r="H11">
-        <v>3.002923460094106</v>
+        <v>2.979050419229749</v>
       </c>
       <c r="I11">
-        <v>2.927475750097511</v>
+        <v>2.831107161350312</v>
       </c>
       <c r="J11">
-        <v>12.25055392345915</v>
+        <v>10.98354516968898</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.087795712276736</v>
+        <v>13.47204589232833</v>
       </c>
       <c r="M11">
-        <v>14.09739007759447</v>
+        <v>12.42977269271759</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.073226748737554</v>
       </c>
       <c r="O11">
-        <v>12.96709088909384</v>
+        <v>13.88470203331995</v>
       </c>
       <c r="P11">
-        <v>13.65053132920291</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.93965779535832</v>
+      </c>
+      <c r="R11">
+        <v>13.23113246747489</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.35805175970232</v>
+        <v>15.49921586341843</v>
       </c>
       <c r="C12">
-        <v>8.91745908565658</v>
+        <v>9.642794712368385</v>
       </c>
       <c r="D12">
-        <v>5.278104115040086</v>
+        <v>5.797123622727338</v>
       </c>
       <c r="E12">
-        <v>7.483113668522937</v>
+        <v>7.706098616489713</v>
       </c>
       <c r="F12">
-        <v>28.73160515774582</v>
+        <v>26.63200036245317</v>
       </c>
       <c r="G12">
-        <v>36.2687360221292</v>
+        <v>34.79631987882333</v>
       </c>
       <c r="H12">
-        <v>4.324287887952726</v>
+        <v>4.308561834983339</v>
       </c>
       <c r="I12">
-        <v>2.916387277921729</v>
+        <v>2.823534978343644</v>
       </c>
       <c r="J12">
-        <v>11.91075696705479</v>
+        <v>10.51530688100964</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.752688117335493</v>
+        <v>13.0353719342925</v>
       </c>
       <c r="M12">
-        <v>14.07413575298277</v>
+        <v>12.01362632019965</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.744568325408634</v>
       </c>
       <c r="O12">
-        <v>12.26422241701015</v>
+        <v>13.83958304003647</v>
       </c>
       <c r="P12">
-        <v>13.46568184590927</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.22665710807195</v>
+      </c>
+      <c r="R12">
+        <v>13.10212410771765</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.12186820656789</v>
+        <v>15.33008608979564</v>
       </c>
       <c r="C13">
-        <v>8.708068553765342</v>
+        <v>9.352484052105465</v>
       </c>
       <c r="D13">
-        <v>4.824898709501307</v>
+        <v>5.306248064073731</v>
       </c>
       <c r="E13">
-        <v>6.608523516168459</v>
+        <v>6.798504245585754</v>
       </c>
       <c r="F13">
-        <v>27.33814330672861</v>
+        <v>25.4020076256826</v>
       </c>
       <c r="G13">
-        <v>34.44462099440309</v>
+        <v>33.07119000084331</v>
       </c>
       <c r="H13">
-        <v>5.722005568397572</v>
+        <v>5.70755472824177</v>
       </c>
       <c r="I13">
-        <v>2.957440709522625</v>
+        <v>2.856877472507688</v>
       </c>
       <c r="J13">
-        <v>11.568067523781</v>
+        <v>10.31493989795977</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.531965128598015</v>
+        <v>12.71234783436644</v>
       </c>
       <c r="M13">
-        <v>13.85099262564225</v>
+        <v>11.61942235645742</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.535631971016167</v>
       </c>
       <c r="O13">
-        <v>11.45771407516246</v>
+        <v>13.6338513755084</v>
       </c>
       <c r="P13">
-        <v>13.35962180322255</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.42321131630107</v>
+      </c>
+      <c r="R13">
+        <v>13.0575301196564</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83881824515199</v>
+        <v>15.11726065713115</v>
       </c>
       <c r="C14">
-        <v>8.510249238157986</v>
+        <v>9.104430776649213</v>
       </c>
       <c r="D14">
-        <v>4.489720284477201</v>
+        <v>4.927738162382844</v>
       </c>
       <c r="E14">
-        <v>6.115874522003803</v>
+        <v>6.27677253556673</v>
       </c>
       <c r="F14">
-        <v>26.30262534299226</v>
+        <v>24.55090040828055</v>
       </c>
       <c r="G14">
-        <v>33.06836200261557</v>
+        <v>31.60074109327643</v>
       </c>
       <c r="H14">
-        <v>6.721535209081264</v>
+        <v>6.706362739791176</v>
       </c>
       <c r="I14">
-        <v>3.012556929857928</v>
+        <v>2.902160892945337</v>
       </c>
       <c r="J14">
-        <v>11.32502031143312</v>
+        <v>10.27497066217657</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.453562004819579</v>
+        <v>12.52732741183003</v>
       </c>
       <c r="M14">
-        <v>13.60063175913557</v>
+        <v>11.3501109610611</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.467190000027392</v>
       </c>
       <c r="O14">
-        <v>10.83933845712719</v>
+        <v>13.41321823384544</v>
       </c>
       <c r="P14">
-        <v>13.32272275203927</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.81248063537272</v>
+      </c>
+      <c r="R14">
+        <v>13.06172588112776</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.71004259410729</v>
+        <v>15.01605662027727</v>
       </c>
       <c r="C15">
-        <v>8.443915579666909</v>
+        <v>9.028550154076221</v>
       </c>
       <c r="D15">
-        <v>4.401771999760204</v>
+        <v>4.822356164923718</v>
       </c>
       <c r="E15">
-        <v>6.012751583477356</v>
+        <v>6.16652303559768</v>
       </c>
       <c r="F15">
-        <v>26.01795050092362</v>
+        <v>24.34103829925198</v>
       </c>
       <c r="G15">
-        <v>32.67858699853209</v>
+        <v>31.12174371768985</v>
       </c>
       <c r="H15">
-        <v>6.956373301947728</v>
+        <v>6.940372865933375</v>
       </c>
       <c r="I15">
-        <v>3.041924791861947</v>
+        <v>2.927520347916771</v>
       </c>
       <c r="J15">
-        <v>11.26214564155219</v>
+        <v>10.3054334661032</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.442961540380483</v>
+        <v>12.49523974850824</v>
       </c>
       <c r="M15">
-        <v>13.49469462123181</v>
+        <v>11.28275306530255</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.459818367240733</v>
       </c>
       <c r="O15">
-        <v>10.66621220440235</v>
+        <v>13.32219924727938</v>
       </c>
       <c r="P15">
-        <v>13.32665650842499</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.64354073308384</v>
+      </c>
+      <c r="R15">
+        <v>13.07547848059098</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.20737815742678</v>
+        <v>14.59422371811351</v>
       </c>
       <c r="C16">
-        <v>8.198780367067952</v>
+        <v>8.801671058542402</v>
       </c>
       <c r="D16">
-        <v>4.331449560203319</v>
+        <v>4.695982470822828</v>
       </c>
       <c r="E16">
-        <v>5.982591939839894</v>
+        <v>6.140744479910881</v>
       </c>
       <c r="F16">
-        <v>25.84595615504947</v>
+        <v>24.41388785101407</v>
       </c>
       <c r="G16">
-        <v>32.39785509963946</v>
+        <v>30.30469238066911</v>
       </c>
       <c r="H16">
-        <v>6.777800628285401</v>
+        <v>6.754885559811941</v>
       </c>
       <c r="I16">
-        <v>3.161594299499742</v>
+        <v>3.02592473994176</v>
       </c>
       <c r="J16">
-        <v>11.26696265461089</v>
+        <v>10.68425397442801</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.42002237849063</v>
+        <v>12.66421061972691</v>
       </c>
       <c r="M16">
-        <v>13.07879407574484</v>
+        <v>11.31638027910839</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.44496961132705</v>
       </c>
       <c r="O16">
-        <v>10.4824824902463</v>
+        <v>12.97058469676656</v>
       </c>
       <c r="P16">
-        <v>13.44597080319038</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.47921972553706</v>
+      </c>
+      <c r="R16">
+        <v>13.19269367001982</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.98678908264446</v>
+        <v>14.37476326929732</v>
       </c>
       <c r="C17">
-        <v>8.118842451236707</v>
+        <v>8.754452728142907</v>
       </c>
       <c r="D17">
-        <v>4.461229648685754</v>
+        <v>4.811324640379724</v>
       </c>
       <c r="E17">
-        <v>6.198231399191634</v>
+        <v>6.370794626326472</v>
       </c>
       <c r="F17">
-        <v>26.27190454530886</v>
+        <v>24.90646272183394</v>
       </c>
       <c r="G17">
-        <v>32.92775259818664</v>
+        <v>30.55779684695353</v>
       </c>
       <c r="H17">
-        <v>6.083919315378018</v>
+        <v>6.054682208681577</v>
       </c>
       <c r="I17">
-        <v>3.225125164501908</v>
+        <v>3.079156259742127</v>
       </c>
       <c r="J17">
-        <v>11.39994696328221</v>
+        <v>10.96388898243702</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.431071707843641</v>
+        <v>12.89210222566396</v>
       </c>
       <c r="M17">
-        <v>12.89264810227943</v>
+        <v>11.47247016490804</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.457180617432772</v>
       </c>
       <c r="O17">
-        <v>10.68026628530855</v>
+        <v>12.8104424201427</v>
       </c>
       <c r="P17">
-        <v>13.55581088150476</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.68556668832959</v>
+      </c>
+      <c r="R17">
+        <v>13.28366011467562</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.98479561743679</v>
+        <v>14.33573260840492</v>
       </c>
       <c r="C18">
-        <v>8.155763549932132</v>
+        <v>8.854089469943235</v>
       </c>
       <c r="D18">
-        <v>4.777176689637876</v>
+        <v>5.136929628504699</v>
       </c>
       <c r="E18">
-        <v>6.784055713921068</v>
+        <v>6.974012397346002</v>
       </c>
       <c r="F18">
-        <v>27.28743381865297</v>
+        <v>25.88033515940182</v>
       </c>
       <c r="G18">
-        <v>34.25911989746803</v>
+        <v>31.65926126741992</v>
       </c>
       <c r="H18">
-        <v>4.904422140225503</v>
+        <v>4.867234777320277</v>
       </c>
       <c r="I18">
-        <v>3.235532311969409</v>
+        <v>3.085084541844211</v>
       </c>
       <c r="J18">
-        <v>11.66722466600437</v>
+        <v>11.26803992909379</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.546911393890586</v>
+        <v>13.23238140034012</v>
       </c>
       <c r="M18">
-        <v>12.89245523713436</v>
+        <v>11.77890814913453</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.568275811487202</v>
       </c>
       <c r="O18">
-        <v>11.231524056695</v>
+        <v>12.81587455071642</v>
       </c>
       <c r="P18">
-        <v>13.68415778952602</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.24087343945942</v>
+      </c>
+      <c r="R18">
+        <v>13.37553209107983</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.12387193195631</v>
+        <v>14.41780702149264</v>
       </c>
       <c r="C19">
-        <v>8.329456301745608</v>
+        <v>9.115280850106846</v>
       </c>
       <c r="D19">
-        <v>5.234270928444182</v>
+        <v>5.617620653709665</v>
       </c>
       <c r="E19">
-        <v>7.767299445139263</v>
+        <v>7.972328674204301</v>
       </c>
       <c r="F19">
-        <v>28.64832739685397</v>
+        <v>27.13478619543191</v>
       </c>
       <c r="G19">
-        <v>36.03127762795952</v>
+        <v>33.20825022614245</v>
       </c>
       <c r="H19">
-        <v>3.545924576457207</v>
+        <v>3.497650508700696</v>
       </c>
       <c r="I19">
-        <v>3.218893945394593</v>
+        <v>3.072563998890999</v>
       </c>
       <c r="J19">
-        <v>12.00643635708182</v>
+        <v>11.584540627776</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.837075716724603</v>
+        <v>13.61974971481196</v>
       </c>
       <c r="M19">
-        <v>13.03731779967493</v>
+        <v>12.1619110848482</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.84908420224805</v>
       </c>
       <c r="O19">
-        <v>12.02180593922206</v>
+        <v>12.95424305969732</v>
       </c>
       <c r="P19">
-        <v>13.82650663805105</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.03271516645252</v>
+      </c>
+      <c r="R19">
+        <v>13.46968907667203</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.70532391711824</v>
+        <v>14.88955271504228</v>
       </c>
       <c r="C20">
-        <v>8.787829436715825</v>
+        <v>9.722796239399541</v>
       </c>
       <c r="D20">
-        <v>6.020969930047151</v>
+        <v>6.466750551211871</v>
       </c>
       <c r="E20">
-        <v>9.614983294779162</v>
+        <v>9.841812023898042</v>
       </c>
       <c r="F20">
-        <v>30.99661906526132</v>
+        <v>29.19701258345026</v>
       </c>
       <c r="G20">
-        <v>39.11064088830083</v>
+        <v>36.07750456089688</v>
       </c>
       <c r="H20">
-        <v>2.198740910758997</v>
+        <v>2.143634480400111</v>
       </c>
       <c r="I20">
-        <v>3.092951175209953</v>
+        <v>2.967652148858497</v>
       </c>
       <c r="J20">
-        <v>12.56643547413469</v>
+        <v>11.94522520813088</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.538660397361943</v>
+        <v>14.15085520480952</v>
       </c>
       <c r="M20">
-        <v>13.58288565820753</v>
+        <v>12.81533110722924</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.530115073393154</v>
       </c>
       <c r="O20">
-        <v>13.41867546622024</v>
+        <v>13.4621456353588</v>
       </c>
       <c r="P20">
-        <v>14.00846343571792</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.42408835620882</v>
+      </c>
+      <c r="R20">
+        <v>13.56069995044737</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.67976243873538</v>
+        <v>15.69453826653395</v>
       </c>
       <c r="C21">
-        <v>9.32793728748605</v>
+        <v>10.2456495093549</v>
       </c>
       <c r="D21">
-        <v>6.363826178828723</v>
+        <v>6.946904025835968</v>
       </c>
       <c r="E21">
-        <v>10.16431797995003</v>
+        <v>10.4370937797112</v>
       </c>
       <c r="F21">
-        <v>32.03478373570699</v>
+        <v>29.6458927247652</v>
       </c>
       <c r="G21">
-        <v>40.53414369231461</v>
+        <v>38.61896755840807</v>
       </c>
       <c r="H21">
-        <v>1.887359809101831</v>
+        <v>1.863776925601997</v>
       </c>
       <c r="I21">
-        <v>2.863543387546648</v>
+        <v>2.782712784337066</v>
       </c>
       <c r="J21">
-        <v>12.75344012318494</v>
+        <v>11.16864686656652</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.753170192788308</v>
+        <v>13.94385883232647</v>
       </c>
       <c r="M21">
-        <v>14.41824361813785</v>
+        <v>12.97658933801285</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.721434905067369</v>
       </c>
       <c r="O21">
-        <v>14.12922734093106</v>
+        <v>14.16454965381302</v>
       </c>
       <c r="P21">
-        <v>13.86534137876817</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.0913890403983</v>
+      </c>
+      <c r="R21">
+        <v>13.34157717388989</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.30758825564121</v>
+        <v>16.20009977645464</v>
       </c>
       <c r="C22">
-        <v>9.629573135512643</v>
+        <v>10.52272240918359</v>
       </c>
       <c r="D22">
-        <v>6.540353505909957</v>
+        <v>7.215327958231425</v>
       </c>
       <c r="E22">
-        <v>10.42500429715165</v>
+        <v>10.73010377428507</v>
       </c>
       <c r="F22">
-        <v>32.64504100504702</v>
+        <v>29.8571929593639</v>
       </c>
       <c r="G22">
-        <v>41.39265764827844</v>
+        <v>40.31672449818899</v>
       </c>
       <c r="H22">
-        <v>1.702311324429855</v>
+        <v>1.698948641734607</v>
       </c>
       <c r="I22">
-        <v>2.707506810134248</v>
+        <v>2.652726830432722</v>
       </c>
       <c r="J22">
-        <v>12.86582150158855</v>
+        <v>10.63754190851499</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.855407786043687</v>
+        <v>13.7936212966934</v>
       </c>
       <c r="M22">
-        <v>14.93092624254311</v>
+        <v>13.07114206548904</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.809319692537434</v>
       </c>
       <c r="O22">
-        <v>14.52349203622086</v>
+        <v>14.58859047271384</v>
       </c>
       <c r="P22">
-        <v>13.76776414359687</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.455497599803</v>
+      </c>
+      <c r="R22">
+        <v>13.19389324368032</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.99472339515562</v>
+        <v>15.96138548012302</v>
       </c>
       <c r="C23">
-        <v>9.443519048032122</v>
+        <v>10.36586238045991</v>
       </c>
       <c r="D23">
-        <v>6.438415337090032</v>
+        <v>7.052960577271286</v>
       </c>
       <c r="E23">
-        <v>10.28382837735195</v>
+        <v>10.56642711030231</v>
       </c>
       <c r="F23">
-        <v>32.35557286161041</v>
+        <v>29.82496232387233</v>
       </c>
       <c r="G23">
-        <v>40.99861740823025</v>
+        <v>39.3090154105618</v>
       </c>
       <c r="H23">
-        <v>1.799682598063804</v>
+        <v>1.784538219772842</v>
       </c>
       <c r="I23">
-        <v>2.778212205995996</v>
+        <v>2.706300197666459</v>
       </c>
       <c r="J23">
-        <v>12.81837448141562</v>
+        <v>11.02339060652526</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.802242349971643</v>
+        <v>13.91233708597598</v>
       </c>
       <c r="M23">
-        <v>14.66250313564204</v>
+        <v>13.0641407970801</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.764614347038088</v>
       </c>
       <c r="O23">
-        <v>14.31429998413198</v>
+        <v>14.37908013170736</v>
       </c>
       <c r="P23">
-        <v>13.8270690448792</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.26697735443432</v>
+      </c>
+      <c r="R23">
+        <v>13.28310057045521</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.74406482613076</v>
+        <v>14.92141848530688</v>
       </c>
       <c r="C24">
-        <v>8.75836276574876</v>
+        <v>9.701339397077147</v>
       </c>
       <c r="D24">
-        <v>6.053914192581542</v>
+        <v>6.501742831333061</v>
       </c>
       <c r="E24">
-        <v>9.73760769794195</v>
+        <v>9.965349973523507</v>
       </c>
       <c r="F24">
-        <v>31.19365912438751</v>
+        <v>29.38322252062305</v>
       </c>
       <c r="G24">
-        <v>39.3925594346993</v>
+        <v>36.32390139837858</v>
       </c>
       <c r="H24">
-        <v>2.177738408906071</v>
+        <v>2.122761599345538</v>
       </c>
       <c r="I24">
-        <v>3.073408750652575</v>
+        <v>2.944864412903929</v>
       </c>
       <c r="J24">
-        <v>12.62278007049001</v>
+        <v>12.00326464445173</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.594546962593606</v>
+        <v>14.22914119628335</v>
       </c>
       <c r="M24">
-        <v>13.59593313845316</v>
+        <v>12.89097645228977</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.585060272997484</v>
       </c>
       <c r="O24">
-        <v>13.49664658748796</v>
+        <v>13.475072441581</v>
       </c>
       <c r="P24">
-        <v>14.04136514693003</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.50244521205698</v>
+      </c>
+      <c r="R24">
+        <v>13.5850202854847</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33935776744551</v>
+        <v>13.56970052863391</v>
       </c>
       <c r="C25">
-        <v>7.971663328107652</v>
+        <v>8.73827488444115</v>
       </c>
       <c r="D25">
-        <v>5.615144480212764</v>
+        <v>6.011015691419541</v>
       </c>
       <c r="E25">
-        <v>9.115142825927226</v>
+        <v>9.341508316683656</v>
       </c>
       <c r="F25">
-        <v>29.92819426310133</v>
+        <v>28.38372114169172</v>
       </c>
       <c r="G25">
-        <v>37.64228936566021</v>
+        <v>34.87197333453201</v>
       </c>
       <c r="H25">
-        <v>2.602620923680341</v>
+        <v>2.518257842913802</v>
       </c>
       <c r="I25">
-        <v>3.407689942422016</v>
+        <v>3.231593238281676</v>
       </c>
       <c r="J25">
-        <v>12.4221108572865</v>
+        <v>11.92031710792886</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.361294015525988</v>
+        <v>14.3537814245828</v>
       </c>
       <c r="M25">
-        <v>12.34844231146997</v>
+        <v>12.51566316309953</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.372019083111819</v>
       </c>
       <c r="O25">
-        <v>12.56297147731618</v>
+        <v>12.27122866722294</v>
       </c>
       <c r="P25">
-        <v>14.27630089521341</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>12.5744515928674</v>
+      </c>
+      <c r="R25">
+        <v>13.84974820543808</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
